--- a/program_performance_metrics.xlsx
+++ b/program_performance_metrics.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M99"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,46 +506,46 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45838</v>
+        <v>45473</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Investment Returns</t>
+          <t>Maintenance</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>113747.08</v>
+        <v>1999755.17</v>
       </c>
       <c r="D2" t="n">
-        <v>588</v>
+        <v>225</v>
       </c>
       <c r="E2" t="n">
-        <v>337</v>
+        <v>131</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>PRG093</t>
+          <t>PRG050</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>141654.88</v>
+        <v>2972514.95</v>
       </c>
       <c r="H2" t="n">
-        <v>80.3</v>
+        <v>67.27</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>57.31%</t>
+          <t>58.22%</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="K2" t="n">
-        <v>193.45</v>
+        <v>8887.799999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>337.53</v>
+        <v>15265.31</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -555,46 +555,46 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45565</v>
+        <v>45382</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Consulting Fees</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2665792.66</v>
+        <v>2238505.6</v>
       </c>
       <c r="D3" t="n">
-        <v>884</v>
+        <v>442</v>
       </c>
       <c r="E3" t="n">
-        <v>458</v>
+        <v>397</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>PRG062</t>
+          <t>PRG034</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3930611.72</v>
+        <v>2584421.16</v>
       </c>
       <c r="H3" t="n">
-        <v>67.81999999999999</v>
+        <v>86.62</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>51.81%</t>
+          <t>89.82%</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>3015.6</v>
+        <v>5064.49</v>
       </c>
       <c r="L3" t="n">
-        <v>5820.51</v>
+        <v>5638.55</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1753907.94</v>
+        <v>1282043.08</v>
       </c>
       <c r="D4" t="n">
         <v>920</v>
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2360736.03</v>
+        <v>1826517.57</v>
       </c>
       <c r="H4" t="n">
-        <v>74.29000000000001</v>
+        <v>70.19</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -637,13 +637,13 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="K4" t="n">
-        <v>1906.42</v>
+        <v>1393.53</v>
       </c>
       <c r="L4" t="n">
-        <v>3385.92</v>
+        <v>2474.99</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -653,46 +653,46 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45565</v>
+        <v>45382</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Investment Returns</t>
+          <t>Maintenance</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>830233.3100000001</v>
+        <v>1930857.38</v>
       </c>
       <c r="D5" t="n">
-        <v>583</v>
+        <v>683</v>
       </c>
       <c r="E5" t="n">
-        <v>529</v>
+        <v>572</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>PRG060</t>
+          <t>PRG039</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1094610.4</v>
+        <v>2586886.19</v>
       </c>
       <c r="H5" t="n">
-        <v>75.84999999999999</v>
+        <v>74.64</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>90.74%</t>
+          <t>83.75%</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>1424.07</v>
+        <v>2827.02</v>
       </c>
       <c r="L5" t="n">
-        <v>1569.44</v>
+        <v>3375.62</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -702,146 +702,142 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45657</v>
+        <v>45291</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Travel Expenses</t>
+          <t>Reimbursement</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2466356.86</v>
-      </c>
-      <c r="D6" t="n">
-        <v>704</v>
-      </c>
+        <v>720991.95</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>PRG077</t>
+          <t>PRG031</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3126629.7</v>
+        <v>970445.27</v>
       </c>
       <c r="H6" t="n">
-        <v>78.88</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>52.27%</t>
+          <t>87.39%</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="K6" t="n">
-        <v>3503.35</v>
+        <v>1514.69</v>
       </c>
       <c r="L6" t="n">
-        <v>6702.06</v>
+        <v>1733.15</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45657</v>
+        <v>45747</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Software Subscription</t>
+          <t>Program Fees</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1484993.45</v>
+        <v>5207713.89</v>
       </c>
       <c r="D7" t="n">
-        <v>878</v>
+        <v>693</v>
       </c>
       <c r="E7" t="n">
-        <v>780</v>
+        <v>388</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>PRG076</t>
+          <t>PRG085</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2155081.23</v>
+        <v>5745058.86</v>
       </c>
       <c r="H7" t="n">
-        <v>68.91</v>
+        <v>90.65000000000001</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>88.84%</t>
+          <t>55.99%</t>
         </is>
       </c>
       <c r="J7" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7514.74</v>
+      </c>
+      <c r="L7" t="n">
+        <v>13421.94</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Grant Funding</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6228566</v>
+      </c>
+      <c r="D8" t="n">
+        <v>587</v>
+      </c>
+      <c r="E8" t="n">
+        <v>501</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>PRG058</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>924843.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>67.34999999999999</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>85.35%</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
         <v>3.9</v>
       </c>
-      <c r="K7" t="n">
-        <v>1691.34</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1903.84</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2024-12-31 INVALID</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Investment Returns</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1228261.45</v>
-      </c>
-      <c r="D8" t="n">
-        <v>783</v>
-      </c>
-      <c r="E8" t="n">
-        <v>762</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>PRG071</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1820190.24</v>
-      </c>
-      <c r="H8" t="n">
-        <v>67.48</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>97.32%</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>4.3</v>
-      </c>
       <c r="K8" t="n">
-        <v>1568.66</v>
+        <v>1061.08</v>
       </c>
       <c r="L8" t="n">
-        <v>1611.89</v>
+        <v>1243.23</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -851,142 +847,142 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45382</v>
+        <v>45291</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Interest Income</t>
+          <t>Consulting Fees</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>725662.6</v>
+        <v>1050555.22</v>
       </c>
       <c r="D9" t="n">
-        <v>514</v>
+        <v>780</v>
       </c>
       <c r="E9" t="n">
-        <v>270</v>
+        <v>414</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>PRG037</t>
+          <t>PRG023</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>984401.64</v>
+        <v>1163146.52</v>
       </c>
       <c r="H9" t="n">
-        <v>73.72</v>
+        <v>90.31999999999999</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>52.53%</t>
+          <t>53.08%</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K9" t="n">
-        <v>1411.79</v>
+        <v>1346.87</v>
       </c>
       <c r="L9" t="n">
-        <v>2687.64</v>
+        <v>2537.57</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45291</v>
+        <v>45199</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Maintenance</t>
+          <t>Interest Income</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2186279.41</v>
+        <v>1286578.1</v>
       </c>
       <c r="D10" t="n">
-        <v>546</v>
+        <v>55</v>
       </c>
       <c r="E10" t="n">
-        <v>371</v>
+        <v>50</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>PRG028</t>
+          <t>PRG015</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>72.27</v>
+        <v>69.48</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>67.95%</t>
+          <t>90.91%</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="K10" t="n">
-        <v>4004.17</v>
+        <v>23392.33</v>
       </c>
       <c r="L10" t="n">
-        <v>5892.94</v>
+        <v>25731.56</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45838</v>
+        <v>45199</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Travel Expenses</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>952662.71</v>
+        <v>1943144.84</v>
       </c>
       <c r="D11" t="n">
-        <v>591</v>
+        <v>971</v>
       </c>
       <c r="E11" t="n">
-        <v>460</v>
+        <v>854</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>PRG097</t>
+          <t>PRG018</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1286984.11</v>
+        <v>2221481.83</v>
       </c>
       <c r="H11" t="n">
-        <v>74.02</v>
+        <v>87.47</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>77.83%</t>
+          <t>87.95%</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="K11" t="n">
-        <v>1611.95</v>
+        <v>2001.18</v>
       </c>
       <c r="L11" t="n">
-        <v>2071.01</v>
+        <v>2275.35</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1000,46 +996,46 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Software Subscription</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>333186.88</v>
+        <v>691059.4399999999</v>
       </c>
       <c r="D12" t="n">
-        <v>231</v>
+        <v>409</v>
       </c>
       <c r="E12" t="n">
-        <v>211</v>
+        <v>357</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>PRG096</t>
+          <t>PRG095</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>481495.99</v>
+        <v>998665.8199999999</v>
       </c>
       <c r="H12" t="n">
         <v>69.2</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>91.34%</t>
+          <t>87.29%</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="K12" t="n">
-        <v>1442.37</v>
+        <v>1689.63</v>
       </c>
       <c r="L12" t="n">
-        <v>1579.08</v>
+        <v>1935.74</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1049,101 +1045,101 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Event Sponsorship</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1952318.22</v>
+        <v>1808022.02</v>
       </c>
       <c r="D13" t="n">
-        <v>966</v>
+        <v>898</v>
       </c>
       <c r="E13" t="n">
-        <v>925</v>
+        <v>604</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>PRG035</t>
+          <t>PRG040</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2254009.33</v>
+        <v>2048762.57</v>
       </c>
       <c r="H13" t="n">
-        <v>86.62</v>
+        <v>88.25</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>95.76%</t>
+          <t>67.26%</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>2021.03</v>
+        <v>2013.39</v>
       </c>
       <c r="L13" t="n">
-        <v>2110.61</v>
+        <v>2993.41</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45565</v>
+        <v>45199</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Interest Income</t>
+          <t>Consulting Fees</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1279843.88</v>
+        <v>2323707.28</v>
       </c>
       <c r="D14" t="n">
-        <v>302</v>
+        <v>669</v>
       </c>
       <c r="E14" t="n">
-        <v>160</v>
+        <v>609</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>PRG059</t>
+          <t>PRG012</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1900365.45</v>
+        <v>2699769.71</v>
       </c>
       <c r="H14" t="n">
-        <v>67.34999999999999</v>
+        <v>86.06999999999999</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>52.98%</t>
+          <t>91.03%</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K14" t="n">
-        <v>4237.89</v>
+        <v>3473.4</v>
       </c>
       <c r="L14" t="n">
-        <v>7999.02</v>
+        <v>3815.61</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45747</v>
+        <v>45107</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1151,87 +1147,87 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>765392.8099999999</v>
+        <v>836576.7</v>
       </c>
       <c r="D15" t="n">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E15" t="n">
-        <v>370</v>
+        <v>187</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>PRG081</t>
+          <t>PRG004</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1089673.42</v>
+        <v>1166001.48</v>
       </c>
       <c r="H15" t="n">
-        <v>70.23999999999999</v>
+        <v>71.75</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>89.43%</t>
+          <t>56.84%</t>
         </is>
       </c>
       <c r="J15" t="n">
         <v>4.6</v>
       </c>
       <c r="K15" t="n">
-        <v>2312.36</v>
+        <v>2542.79</v>
       </c>
       <c r="L15" t="n">
-        <v>2585.79</v>
+        <v>4473.67</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45473</v>
+        <v>45199</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Travel Expenses</t>
+          <t>Event Sponsorship</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1201519.36</v>
+        <v>1413899.93</v>
       </c>
       <c r="D16" t="n">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="E16" t="n">
-        <v>809</v>
+        <v>922</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>PRG055</t>
+          <t>PRG013</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1356675.27</v>
+        <v>1632554.2</v>
       </c>
       <c r="H16" t="n">
-        <v>88.56</v>
+        <v>86.61</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>83.75%</t>
+          <t>96.34%</t>
         </is>
       </c>
       <c r="J16" t="n">
         <v>3.7</v>
       </c>
       <c r="K16" t="n">
-        <v>1243.81</v>
+        <v>1477.43</v>
       </c>
       <c r="L16" t="n">
-        <v>1485.19</v>
+        <v>1533.51</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1241,95 +1237,97 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45382</v>
+        <v>45838</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Maintenance</t>
+          <t>Interest Income</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1538246.93</v>
+        <v>188263.79</v>
       </c>
       <c r="D17" t="n">
-        <v>683</v>
+        <v>464</v>
       </c>
       <c r="E17" t="n">
-        <v>572</v>
+        <v>311</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>PRG039</t>
+          <t>PRG092</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1986818.16</v>
+        <v>234454.23</v>
       </c>
       <c r="H17" t="n">
-        <v>77.42</v>
+        <v>80.3</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>83.75%</t>
+          <t>67.03%</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="K17" t="n">
-        <v>2252.19</v>
+        <v>405.74</v>
       </c>
       <c r="L17" t="n">
-        <v>2689.24</v>
+        <v>605.35</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45473</v>
+        <v>45107</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Grant Funding</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>1086811.02</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>468331.81</t>
+        </is>
       </c>
       <c r="D18" t="n">
-        <v>485</v>
+        <v>243</v>
       </c>
       <c r="E18" t="n">
-        <v>312</v>
+        <v>233</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>PRG047</t>
+          <t>PRG003</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1592458.07</v>
+        <v>566114.29</v>
       </c>
       <c r="H18" t="n">
-        <v>68.25</v>
+        <v>82.73</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>64.33%</t>
+          <t>95.88%</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="K18" t="n">
-        <v>2240.85</v>
+        <v>1927.29</v>
       </c>
       <c r="L18" t="n">
-        <v>3483.37</v>
+        <v>2010.01</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1339,195 +1337,197 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45199</v>
+        <v>45747</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Consulting Fees</t>
+          <t>Interest Income</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2090448.28</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>238006.48</v>
+      </c>
+      <c r="D19" t="n">
+        <v>331</v>
+      </c>
       <c r="E19" t="n">
-        <v>609</v>
+        <v>296</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>PRG012</t>
+          <t>PRG081</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2565762.42</v>
+        <v>354343.81</v>
       </c>
       <c r="H19" t="n">
-        <v>81.47</v>
+        <v>67.17</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>91.03%</t>
+          <t>89.43%</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="K19" t="n">
-        <v>3124.74</v>
+        <v>719.05</v>
       </c>
       <c r="L19" t="n">
-        <v>3432.59</v>
+        <v>804.08</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45199</v>
+        <v>45747</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Program Fees</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>4363156.86</t>
-        </is>
+          <t>Travel Expenses</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1304883.1</v>
       </c>
       <c r="D20" t="n">
-        <v>975</v>
+        <v>275</v>
       </c>
       <c r="E20" t="n">
-        <v>620</v>
+        <v>220</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>PRG019</t>
+          <t>PRG088</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4988137.53</v>
+        <v>1504238.93</v>
       </c>
       <c r="H20" t="n">
-        <v>87.47</v>
+        <v>86.75</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>63.59%</t>
+          <t>80.0%</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="K20" t="n">
-        <v>4475.03</v>
+        <v>4745.03</v>
       </c>
       <c r="L20" t="n">
-        <v>7037.35</v>
+        <v>5931.29</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45838</v>
+        <v>45199</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Consulting Fees</t>
+          <t>Grant Funding</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>129071.41</v>
+        <v>411353.26</v>
       </c>
       <c r="D21" t="n">
-        <v>486</v>
+        <v>808</v>
       </c>
       <c r="E21" t="n">
-        <v>280</v>
+        <v>674</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>PRG089</t>
+          <t>PRG014</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>148790.52</v>
+        <v>498178.58</v>
       </c>
       <c r="H21" t="n">
-        <v>86.75</v>
+        <v>82.56999999999999</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>57.61%</t>
+          <t>83.42%</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="K21" t="n">
-        <v>265.58</v>
+        <v>509.1</v>
       </c>
       <c r="L21" t="n">
-        <v>460.97</v>
+        <v>610.3200000000001</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45473</v>
+        <v>45291</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Event Sponsorship</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1479639.82</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>2665323.58</v>
+      </c>
+      <c r="D22" t="n">
+        <v>567</v>
+      </c>
       <c r="E22" t="n">
-        <v>39</v>
+        <v>412</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>PRG046</t>
+          <t>PRG029</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2127335.41</v>
+        <v>3302122.59</v>
       </c>
       <c r="H22" t="n">
-        <v>69.55</v>
+        <v>80.72</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>76.47%</t>
+          <t>72.66%</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="K22" t="n">
-        <v>29012.55</v>
+        <v>4700.75</v>
       </c>
       <c r="L22" t="n">
-        <v>37939.48</v>
+        <v>6469.23</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1537,140 +1537,138 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Grant Funding</t>
+          <t>Investment Returns</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>820177.5</v>
+        <v>1531328.28</v>
       </c>
       <c r="D23" t="n">
-        <v>285</v>
+        <v>505</v>
       </c>
       <c r="E23" t="n">
-        <v>237</v>
+        <v>505</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>PRG080</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>1178471.1</v>
-      </c>
+          <t>PRG082</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>69.59999999999999</v>
+        <v>71.39</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>83.16%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="K23" t="n">
-        <v>2877.82</v>
+        <v>3032.33</v>
       </c>
       <c r="L23" t="n">
-        <v>3460.66</v>
+        <v>3032.33</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45107</v>
+        <v>45838</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Event Sponsorship</t>
+          <t>Consulting Fees</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1236303.87</v>
+        <v>205883.7</v>
       </c>
       <c r="D24" t="n">
-        <v>692</v>
+        <v>486</v>
       </c>
       <c r="E24" t="n">
-        <v>549</v>
+        <v>280</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>PRG002</t>
+          <t>PRG089</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1740815.19</v>
+        <v>306647.38</v>
       </c>
       <c r="H24" t="n">
-        <v>71.02</v>
+        <v>67.14</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>79.34%</t>
+          <t>57.61%</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="K24" t="n">
-        <v>1786.57</v>
+        <v>423.63</v>
       </c>
       <c r="L24" t="n">
-        <v>2251.92</v>
+        <v>735.3</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45291</v>
+        <v>45382</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Event Sponsorship</t>
+          <t>Software Subscription</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2439887.31</v>
+        <v>2115559.9</v>
       </c>
       <c r="D25" t="n">
-        <v>942</v>
+        <v>475</v>
       </c>
       <c r="E25" t="n">
-        <v>814</v>
+        <v>252</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>PRG024</t>
+          <t>PRG043</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2701377.69</v>
+        <v>2572115.24</v>
       </c>
       <c r="H25" t="n">
-        <v>90.31999999999999</v>
+        <v>82.25</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>86.41%</t>
+          <t>53.05%</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="K25" t="n">
-        <v>2590.11</v>
+        <v>4453.81</v>
       </c>
       <c r="L25" t="n">
-        <v>2997.4</v>
+        <v>8395.08</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -1680,46 +1678,46 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45382</v>
+        <v>45747</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Investment Returns</t>
+          <t>Software Subscription</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1096435.68</v>
+        <v>2200766.13</v>
       </c>
       <c r="D26" t="n">
-        <v>928</v>
+        <v>282</v>
       </c>
       <c r="E26" t="n">
-        <v>491</v>
+        <v>154</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>PRG038</t>
+          <t>PRG087</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1468127.48</v>
+        <v>2505242.94</v>
       </c>
       <c r="H26" t="n">
-        <v>74.68000000000001</v>
+        <v>87.84999999999999</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>52.91%</t>
+          <t>54.61%</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K26" t="n">
-        <v>1181.5</v>
+        <v>7804.14</v>
       </c>
       <c r="L26" t="n">
-        <v>2233.07</v>
+        <v>14290.69</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -1729,46 +1727,46 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45291</v>
+        <v>45107</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Interest Income</t>
+          <t>Reimbursement</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1033284.06</v>
+        <v>822147.73</v>
       </c>
       <c r="D27" t="n">
-        <v>518</v>
+        <v>594</v>
       </c>
       <c r="E27" t="n">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>PRG026</t>
+          <t>PRG009</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1170870.37</v>
+        <v>1088763.08</v>
       </c>
       <c r="H27" t="n">
-        <v>88.25</v>
+        <v>75.51000000000001</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>67.95%</t>
+          <t>52.19%</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K27" t="n">
-        <v>1994.76</v>
+        <v>1384.09</v>
       </c>
       <c r="L27" t="n">
-        <v>2935.47</v>
+        <v>2652.09</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -1778,7 +1776,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45107</v>
+        <v>45382</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1786,146 +1784,146 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>600633.3</v>
+        <v>826938.92</v>
       </c>
       <c r="D28" t="n">
-        <v>243</v>
+        <v>914</v>
       </c>
       <c r="E28" t="n">
-        <v>171</v>
+        <v>664</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>PRG003</t>
+          <t>PRG036</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>769051.49</v>
+        <v>1121788.6</v>
       </c>
       <c r="H28" t="n">
-        <v>78.09999999999999</v>
+        <v>73.72</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>70.37%</t>
+          <t>72.65%</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="K28" t="n">
-        <v>2471.74</v>
+        <v>904.75</v>
       </c>
       <c r="L28" t="n">
-        <v>3512.48</v>
+        <v>1245.39</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45107</v>
+        <v>45473</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Travel Expenses</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1908480.01</v>
+        <v>2243175.86</v>
       </c>
       <c r="D29" t="n">
-        <v>444</v>
+        <v>966</v>
       </c>
       <c r="E29" t="n">
-        <v>432</v>
+        <v>809</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>PRG007</t>
+          <t>PRG055</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2653048</v>
+        <v>3085274.39</v>
       </c>
       <c r="H29" t="n">
-        <v>71.94</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>97.3%</t>
+          <t>83.75%</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="K29" t="n">
-        <v>4298.38</v>
+        <v>2322.13</v>
       </c>
       <c r="L29" t="n">
-        <v>4417.78</v>
+        <v>2772.78</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45382</v>
+        <v>45838</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Consulting Fees</t>
+          <t>Program Fees</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1092808.85</v>
+        <v>1461250.72</v>
       </c>
       <c r="D30" t="n">
-        <v>442</v>
+        <v>231</v>
       </c>
       <c r="E30" t="n">
-        <v>397</v>
+        <v>211</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>PRG034</t>
+          <t>PRG096</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1340405.43</v>
+        <v>1974052.77</v>
       </c>
       <c r="H30" t="n">
-        <v>81.53</v>
+        <v>74.02</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>89.82%</t>
+          <t>91.34%</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K30" t="n">
-        <v>2472.42</v>
+        <v>6325.76</v>
       </c>
       <c r="L30" t="n">
-        <v>2752.67</v>
+        <v>6925.36</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45199</v>
+        <v>45473</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1933,38 +1931,38 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>773789.17</v>
+        <v>1158829.42</v>
       </c>
       <c r="D31" t="n">
-        <v>356</v>
+        <v>573</v>
       </c>
       <c r="E31" t="n">
-        <v>228</v>
+        <v>479</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>PRG020</t>
+          <t>PRG053</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1107758.44</v>
+        <v>1734882.15</v>
       </c>
       <c r="H31" t="n">
-        <v>69.84999999999999</v>
+        <v>66.8</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>64.04%</t>
+          <t>83.6%</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="K31" t="n">
-        <v>2173.57</v>
+        <v>2022.39</v>
       </c>
       <c r="L31" t="n">
-        <v>3393.81</v>
+        <v>2419.27</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -1973,53 +1971,49 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2025-03-31 INVALID</t>
-        </is>
+      <c r="A32" s="2" t="n">
+        <v>45473</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Event Sponsorship</t>
+          <t>Grant Funding</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1743677.08</v>
-      </c>
-      <c r="D32" t="n">
-        <v>367</v>
-      </c>
+        <v>1155018.89</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>235</v>
+        <v>312</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>PRG079</t>
+          <t>PRG047</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2288096.72</v>
+        <v>1699054.64</v>
       </c>
       <c r="H32" t="n">
-        <v>76.20999999999999</v>
+        <v>67.98</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>64.03%</t>
+          <t>64.33%</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>4751.16</v>
+        <v>2381.48</v>
       </c>
       <c r="L32" t="n">
-        <v>7419.9</v>
+        <v>3701.98</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -2029,42 +2023,42 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CONSULTING FEES</t>
+          <t>Program Fees</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2067638</v>
+        <v>4592645.76</v>
       </c>
       <c r="D33" t="n">
-        <v>67</v>
+        <v>276</v>
       </c>
       <c r="E33" t="n">
-        <v>47</v>
+        <v>214</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>PRG067</t>
+          <t>PRG074</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2321776.6</v>
+        <v>6406390.37</v>
       </c>
       <c r="H33" t="n">
-        <v>89.05</v>
+        <v>71.69</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>70.15%</t>
+          <t>77.54%</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="K33" t="n">
-        <v>30860.27</v>
+        <v>16640.02</v>
       </c>
       <c r="L33" t="n">
-        <v>43992.3</v>
+        <v>21460.96</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -2074,246 +2068,250 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45199</v>
+        <v>45565</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Maintenance</t>
+          <t>Interest Income</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1522852.9</v>
+        <v>1107910.53</v>
       </c>
       <c r="D34" t="n">
-        <v>52</v>
+        <v>302</v>
       </c>
       <c r="E34" t="n">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>PRG017</t>
+          <t>PRG059</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2110379.57</v>
+        <v>1460710.36</v>
       </c>
       <c r="H34" t="n">
-        <v>72.16</v>
+        <v>75.84999999999999</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>82.69%</t>
+          <t>52.98%</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="K34" t="n">
-        <v>29285.63</v>
+        <v>3668.58</v>
       </c>
       <c r="L34" t="n">
-        <v>35415.18</v>
+        <v>6924.44</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>45291</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-03-31 INVALID</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Program Fees</t>
+          <t>Reimbursement</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4246299.19</v>
+        <v>1464623.26</v>
       </c>
       <c r="D35" t="n">
-        <v>166</v>
+        <v>233</v>
       </c>
       <c r="E35" t="n">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>PRG030</t>
+          <t>PRG042</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>5260824.84</v>
+        <v>2028464.65</v>
       </c>
       <c r="H35" t="n">
-        <v>80.72</v>
+        <v>72.2</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>89.16%</t>
+          <t>78.11%</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>3.9</v>
+        <v>4.9</v>
       </c>
       <c r="K35" t="n">
-        <v>25580.12</v>
+        <v>6285.94</v>
       </c>
       <c r="L35" t="n">
-        <v>28691.21</v>
+        <v>8047.38</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45107</v>
+        <v>45291</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Consulting Fees</t>
+          <t>Event Sponsorship</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1038370.83</v>
+        <v>1903500.91</v>
       </c>
       <c r="D36" t="n">
-        <v>445</v>
+        <v>942</v>
       </c>
       <c r="E36" t="n">
-        <v>268</v>
+        <v>814</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>PRG001</t>
+          <t>PRG024</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1231197.25</v>
+        <v>2320588.58</v>
       </c>
       <c r="H36" t="n">
-        <v>84.34</v>
+        <v>82.03</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>60.22%</t>
+          <t>86.41%</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K36" t="n">
-        <v>2333.42</v>
+        <v>2020.7</v>
       </c>
       <c r="L36" t="n">
-        <v>3874.52</v>
+        <v>2338.45</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45199</v>
+        <v>45382</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>2614636.95</v>
+          <t>Interest Income</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1169852.0899999999</t>
+        </is>
       </c>
       <c r="D37" t="n">
-        <v>971</v>
+        <v>514</v>
       </c>
       <c r="E37" t="n">
-        <v>854</v>
+        <v>270</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>PRG018</t>
+          <t>PRG037</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3651561.83</v>
+        <v>1566432.06</v>
       </c>
       <c r="H37" t="n">
-        <v>71.59999999999999</v>
+        <v>74.68000000000001</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>87.95%</t>
+          <t>52.53%</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="K37" t="n">
-        <v>2692.73</v>
+        <v>2275.98</v>
       </c>
       <c r="L37" t="n">
-        <v>3061.64</v>
+        <v>4332.79</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45473</v>
+        <v>45838</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Maintenance</t>
+          <t>Grant Funding</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2578885.21</v>
+        <v>404902.61</v>
       </c>
       <c r="D38" t="n">
-        <v>225</v>
+        <v>332</v>
       </c>
       <c r="E38" t="n">
-        <v>131</v>
+        <v>335</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>PRG050</t>
+          <t>PRG091</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3402232.45</v>
+        <v>488084.33</v>
       </c>
       <c r="H38" t="n">
-        <v>75.8</v>
+        <v>82.95999999999999</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>58.22%</t>
+          <t>54.52%</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="K38" t="n">
-        <v>11461.71</v>
+        <v>1219.59</v>
       </c>
       <c r="L38" t="n">
-        <v>19686.15</v>
+        <v>2237.03</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -2323,42 +2321,40 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Program Fees</t>
+          <t>Investment Returns</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5697173.92</v>
-      </c>
-      <c r="D39" t="n">
-        <v>831</v>
-      </c>
+        <v>929658.12</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="n">
-        <v>593</v>
+        <v>529</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>PRG063</t>
+          <t>PRG060</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>7308282.34</v>
+        <v>1044043.57</v>
       </c>
       <c r="H39" t="n">
-        <v>77.95999999999999</v>
+        <v>89.04000000000001</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>71.36%</t>
+          <t>90.74%</t>
         </is>
       </c>
       <c r="J39" t="n">
         <v>4.4</v>
       </c>
       <c r="K39" t="n">
-        <v>6855.8</v>
+        <v>1594.61</v>
       </c>
       <c r="L39" t="n">
-        <v>9607.379999999999</v>
+        <v>1757.39</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -2368,203 +2364,205 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45838</v>
+        <v>45657</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Maintenance</t>
+          <t>Consulting Fees</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>213243.67</v>
+        <v>2002866.21</v>
       </c>
       <c r="D40" t="n">
-        <v>326</v>
+        <v>67</v>
       </c>
       <c r="E40" t="n">
-        <v>267</v>
+        <v>47</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>PRG094</t>
+          <t>PRG067</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>274075.73</v>
+        <v>2752327.27</v>
       </c>
       <c r="H40" t="n">
-        <v>77.8</v>
+        <v>145.54</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>81.9%</t>
+          <t>70.15%</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="K40" t="n">
-        <v>654.12</v>
+        <v>29893.53</v>
       </c>
       <c r="L40" t="n">
-        <v>798.67</v>
+        <v>42614.17</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45199</v>
+        <v>45107</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Investment Returns</t>
+          <t>Consulting Fees</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>718617.8200000001</v>
+        <v>860995.1</v>
       </c>
       <c r="D41" t="n">
-        <v>957</v>
+        <v>445</v>
       </c>
       <c r="E41" t="n">
-        <v>917</v>
+        <v>425</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>PRG016</t>
+          <t>PRG001</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1034354.39</v>
+        <v>1212350.29</v>
       </c>
       <c r="H41" t="n">
-        <v>69.48</v>
+        <v>71.02</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>95.82%</t>
+          <t>95.51%</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="K41" t="n">
-        <v>750.91</v>
+        <v>1934.82</v>
       </c>
       <c r="L41" t="n">
-        <v>783.66</v>
+        <v>2025.87</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>45107</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2023-09-30 INVALID</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Program Fees</t>
+          <t>Reimbursement</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3900149.68</v>
+        <v>1358483.02</v>
       </c>
       <c r="D42" t="n">
-        <v>524</v>
+        <v>356</v>
       </c>
       <c r="E42" t="n">
-        <v>359</v>
+        <v>228</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>PRG008</t>
+          <t>PRG020</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>5459296.61</v>
+        <v>1750347.31</v>
       </c>
       <c r="H42" t="n">
-        <v>71.44</v>
+        <v>77.61</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>68.51%</t>
+          <t>64.04%</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="K42" t="n">
-        <v>7443.03</v>
+        <v>3815.96</v>
       </c>
       <c r="L42" t="n">
-        <v>10863.93</v>
+        <v>5958.26</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45473</v>
+        <v>45657</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Reimbursement</t>
+          <t>Interest Income</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1523633.02</v>
+        <v>554201.91</v>
       </c>
       <c r="D43" t="n">
-        <v>573</v>
+        <v>158</v>
       </c>
       <c r="E43" t="n">
-        <v>479</v>
+        <v>85</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>PRG053</t>
+          <t>PRG070</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2003592.82</v>
+        <v>821285.16</v>
       </c>
       <c r="H43" t="n">
-        <v>76.05</v>
+        <v>67.48</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>83.6%</t>
+          <t>53.8%</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="K43" t="n">
-        <v>2659.05</v>
+        <v>3507.61</v>
       </c>
       <c r="L43" t="n">
-        <v>3180.86</v>
+        <v>6520.02</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45565</v>
+        <v>45107</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2572,134 +2570,136 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2148071.79</v>
+        <v>1486057.13</v>
       </c>
       <c r="D44" t="n">
-        <v>534</v>
+        <v>680</v>
       </c>
       <c r="E44" t="n">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>PRG066</t>
+          <t>PRG011</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2562193.73</v>
+        <v>1823948.28</v>
       </c>
       <c r="H44" t="n">
-        <v>83.84</v>
+        <v>81.47</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>78.84%</t>
+          <t>62.35%</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K44" t="n">
-        <v>4022.61</v>
+        <v>2185.38</v>
       </c>
       <c r="L44" t="n">
-        <v>5102.31</v>
+        <v>3504.85</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45473</v>
+        <v>45291</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Program Fees</t>
+          <t>Grant Funding</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5372395.58</v>
+        <v>1455406.59</v>
       </c>
       <c r="D45" t="n">
-        <v>663</v>
+        <v>130</v>
       </c>
       <c r="E45" t="n">
-        <v>406</v>
+        <v>120</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>PRG052</t>
+          <t>PRG025</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>7877336.2</v>
+        <v>1649200.37</v>
       </c>
       <c r="H45" t="n">
-        <v>68.2</v>
+        <v>88.25</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>61.24%</t>
+          <t>92.31%</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="K45" t="n">
-        <v>8103.16</v>
+        <v>11195.44</v>
       </c>
       <c r="L45" t="n">
-        <v>13232.5</v>
+        <v>12128.39</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45199</v>
+        <v>45838</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Interest Income</t>
+          <t>Maintenance</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>920906.47</v>
-      </c>
-      <c r="D46" t="inlineStr"/>
+        <v>536880.95</v>
+      </c>
+      <c r="D46" t="n">
+        <v>326</v>
+      </c>
       <c r="E46" t="n">
-        <v>50</v>
+        <v>267</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>PRG015</t>
+          <t>PRG094</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1115284.41</v>
+        <v>729746.6899999999</v>
       </c>
       <c r="H46" t="n">
-        <v>82.56999999999999</v>
+        <v>73.56999999999999</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>90.91%</t>
+          <t>81.9%</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="K46" t="n">
-        <v>16743.75</v>
+        <v>1646.87</v>
       </c>
       <c r="L46" t="n">
-        <v>18418.13</v>
+        <v>2010.79</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -2709,46 +2709,46 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45199</v>
+        <v>45838</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>travel expenses</t>
+          <t>Investment Returns</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1535773</v>
+        <v>49569.95</v>
       </c>
       <c r="D47" t="n">
-        <v>783</v>
+        <v>588</v>
       </c>
       <c r="E47" t="n">
-        <v>436</v>
+        <v>337</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>PRG022</t>
+          <t>PRG093</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2019522.21</v>
+        <v>63710.78</v>
       </c>
       <c r="H47" t="n">
-        <v>76.05</v>
+        <v>77.8</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>55.68%</t>
+          <t>57.31%</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="K47" t="n">
-        <v>1961.4</v>
+        <v>84.3</v>
       </c>
       <c r="L47" t="n">
-        <v>3522.42</v>
+        <v>147.09</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -2758,46 +2758,44 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45291</v>
+        <v>45199</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Grant Funding</t>
+          <t>PROGRAM FEES</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1062872.35</v>
+        <v>5315515.06</v>
       </c>
       <c r="D48" t="n">
-        <v>130</v>
+        <v>975</v>
       </c>
       <c r="E48" t="n">
-        <v>120</v>
+        <v>620</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>PRG025</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>1295764.78</v>
-      </c>
+          <t>PRG019</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>82.03</v>
+        <v>69.84999999999999</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>92.31%</t>
+          <t>63.59%</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="K48" t="n">
-        <v>8175.94</v>
+        <v>5451.81</v>
       </c>
       <c r="L48" t="n">
-        <v>8857.27</v>
+        <v>8573.41</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -2807,95 +2805,95 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45382</v>
+        <v>45657</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Travel Expenses</t>
+          <t>Software Subscription</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2482242.06</v>
+        <v>1696419.53</v>
       </c>
       <c r="D49" t="n">
-        <v>155</v>
+        <v>878</v>
       </c>
       <c r="E49" t="n">
-        <v>125</v>
+        <v>780</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>PRG044</t>
+          <t>PRG076</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3017930.44</v>
+        <v>2150571.06</v>
       </c>
       <c r="H49" t="n">
-        <v>82.25</v>
+        <v>78.88</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>80.65%</t>
+          <t>88.84%</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="K49" t="n">
-        <v>16014.46</v>
+        <v>1932.14</v>
       </c>
       <c r="L49" t="n">
-        <v>19857.94</v>
+        <v>2174.9</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45291</v>
+        <v>45473</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Consulting Fees</t>
+          <t>Software Subscription</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1568266.7</v>
+        <v>1741377.69</v>
       </c>
       <c r="D50" t="n">
-        <v>780</v>
+        <v>343</v>
       </c>
       <c r="E50" t="n">
-        <v>414</v>
+        <v>287</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>PRG023</t>
+          <t>PRG054</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2197004.49</v>
+        <v>1966247.17</v>
       </c>
       <c r="H50" t="n">
-        <v>71.38</v>
+        <v>88.56</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>53.08%</t>
+          <t>83.67%</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K50" t="n">
-        <v>2010.6</v>
+        <v>5076.9</v>
       </c>
       <c r="L50" t="n">
-        <v>3788.08</v>
+        <v>6067.52</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -2905,48 +2903,50 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45199</v>
+        <v>45747</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Software Subscription</t>
+          <t>Event Sponsorship</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1782644.82</v>
+        <v>1556006.6</v>
       </c>
       <c r="D51" t="n">
-        <v>266</v>
+        <v>367</v>
       </c>
       <c r="E51" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>PRG021</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
+          <t>PRG079</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>2235746.31</v>
+      </c>
       <c r="H51" t="n">
-        <v>77.61</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>89.47%</t>
+          <t>64.03%</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="K51" t="n">
-        <v>6701.67</v>
+        <v>4239.8</v>
       </c>
       <c r="L51" t="n">
-        <v>7490.1</v>
+        <v>6621.3</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -2956,93 +2956,95 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Maintenance</t>
+          <t>Consulting Fees</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1630474.49</v>
+        <v>1538544.74</v>
       </c>
       <c r="D52" t="n">
-        <v>139</v>
+        <v>273</v>
       </c>
       <c r="E52" t="n">
-        <v>81</v>
+        <v>218</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>PRG083</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr"/>
+          <t>PRG078</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>2018916.93</v>
+      </c>
       <c r="H52" t="n">
-        <v>71.39</v>
+        <v>76.20999999999999</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>58.27%</t>
+          <t>79.85%</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="K52" t="n">
-        <v>11730.03</v>
+        <v>5635.7</v>
       </c>
       <c r="L52" t="n">
-        <v>20129.31</v>
+        <v>7057.54</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45473</v>
+        <v>45657</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Interest Income</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>869778.48</v>
+        <v>1947450.51</v>
       </c>
       <c r="D53" t="n">
-        <v>843</v>
+        <v>407</v>
       </c>
       <c r="E53" t="n">
-        <v>432</v>
+        <v>235</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>PRG048</t>
+          <t>PRG073</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1279460.6</v>
+        <v>2494056.07</v>
       </c>
       <c r="H53" t="n">
-        <v>67.98</v>
+        <v>78.08</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>51.25%</t>
+          <t>57.74%</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="K53" t="n">
-        <v>1031.77</v>
+        <v>4784.89</v>
       </c>
       <c r="L53" t="n">
-        <v>2013.38</v>
+        <v>8287.02</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -3052,42 +3054,42 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Software Subscription</t>
+          <t>Event Sponsorship</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1528408.08</v>
+        <v>2087755.9</v>
       </c>
       <c r="D54" t="n">
-        <v>349</v>
+        <v>692</v>
       </c>
       <c r="E54" t="n">
-        <v>252</v>
+        <v>652</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>PRG010</t>
+          <t>PRG002</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2024057.51</v>
+        <v>2673164.8</v>
       </c>
       <c r="H54" t="n">
-        <v>75.51000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>72.21%</t>
+          <t>94.22%</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="K54" t="n">
-        <v>4379.39</v>
+        <v>3016.99</v>
       </c>
       <c r="L54" t="n">
-        <v>6065.11</v>
+        <v>3202.08</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -3097,289 +3099,291 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45107</v>
+        <v>45291</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Travel Expenses</t>
+          <t>Interest Income</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1164615.56</v>
+        <v>989651.8200000001</v>
       </c>
       <c r="D55" t="n">
-        <v>680</v>
+        <v>518</v>
       </c>
       <c r="E55" t="n">
-        <v>424</v>
+        <v>352</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>PRG011</t>
+          <t>PRG026</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1546550.32</v>
+        <v>1102692.96</v>
       </c>
       <c r="H55" t="n">
-        <v>75.3</v>
+        <v>89.75</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>62.35%</t>
+          <t>67.95%</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="K55" t="n">
-        <v>1712.67</v>
+        <v>1910.52</v>
       </c>
       <c r="L55" t="n">
-        <v>2746.73</v>
+        <v>2811.51</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45473</v>
+        <v>45565</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Software Subscription</t>
+          <t>Travel Expenses</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1541643.99</v>
+        <v>1508492.44</v>
       </c>
       <c r="D56" t="n">
-        <v>343</v>
+        <v>534</v>
       </c>
       <c r="E56" t="n">
-        <v>287</v>
+        <v>421</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>PRG054</t>
+          <t>PRG066</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2307993.39</v>
+        <v>1693905.05</v>
       </c>
       <c r="H56" t="n">
-        <v>66.8</v>
+        <v>89.05</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>83.67%</t>
+          <t>78.84%</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="K56" t="n">
-        <v>4494.59</v>
+        <v>2824.89</v>
       </c>
       <c r="L56" t="n">
-        <v>5371.58</v>
+        <v>3583.12</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45657</v>
+        <v>45565</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Maintenance</t>
+          <t>Consulting Fees</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2144976.58</v>
+        <v>1745139.85</v>
       </c>
       <c r="D57" t="n">
-        <v>112</v>
+        <v>823</v>
       </c>
       <c r="E57" t="n">
-        <v>71</v>
+        <v>756</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>PRG072</t>
+          <t>PRG056</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3164612.63</v>
+        <v>2158015.18</v>
       </c>
       <c r="H57" t="n">
-        <v>67.78</v>
+        <v>80.87</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>63.39%</t>
+          <t>91.86%</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
       <c r="K57" t="n">
-        <v>19151.58</v>
+        <v>2120.46</v>
       </c>
       <c r="L57" t="n">
-        <v>30210.94</v>
+        <v>2308.39</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45565</v>
+        <v>45473</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Software Subscription</t>
+          <t>Interest Income</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1882316.71</v>
+        <v>1087912.4</v>
       </c>
       <c r="D58" t="n">
-        <v>63</v>
+        <v>843</v>
       </c>
       <c r="E58" t="n">
-        <v>50</v>
+        <v>432</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>PRG065</t>
+          <t>PRG048</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2166946.94</v>
+        <v>1249344.84</v>
       </c>
       <c r="H58" t="n">
-        <v>86.86</v>
+        <v>87.08</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>79.37%</t>
+          <t>51.25%</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K58" t="n">
-        <v>29878.04</v>
+        <v>1290.52</v>
       </c>
       <c r="L58" t="n">
-        <v>37646.33</v>
+        <v>2518.32</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45565</v>
+        <v>45291</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Event Sponsorship</t>
+          <t>Maintenance</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>23251776.1</v>
-      </c>
-      <c r="D59" t="inlineStr"/>
+        <v>1838787.53</v>
+      </c>
+      <c r="D59" t="n">
+        <v>546</v>
+      </c>
       <c r="E59" t="n">
-        <v>97</v>
+        <v>371</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>PRG057</t>
+          <t>PRG028</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2875281.64</v>
+        <v>2441440.54</v>
       </c>
       <c r="H59" t="n">
-        <v>80.87</v>
+        <v>75.31999999999999</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>57.74%</t>
+          <t>67.95%</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K59" t="n">
-        <v>13840.34</v>
+        <v>3367.74</v>
       </c>
       <c r="L59" t="n">
-        <v>23970.9</v>
+        <v>4956.3</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45107</v>
+        <v>45382</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Interest Income</t>
+          <t>Event Sponsorship</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>629410.3200000001</v>
+        <v>1175074.05</v>
       </c>
       <c r="D60" t="n">
-        <v>329</v>
+        <v>966</v>
       </c>
       <c r="E60" t="n">
-        <v>187</v>
+        <v>925</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>PRG004</t>
+          <t>PRG035</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>760824.21</v>
+        <v>1520836.32</v>
       </c>
       <c r="H60" t="n">
-        <v>82.73</v>
+        <v>77.26000000000001</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>56.84%</t>
+          <t>95.76%</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="K60" t="n">
-        <v>1913.1</v>
+        <v>1216.43</v>
       </c>
       <c r="L60" t="n">
-        <v>3365.83</v>
+        <v>1270.35</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -3389,105 +3393,105 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45382</v>
+        <v>45107</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Software Subscription</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2042756.56</v>
+        <v>1824957.32</v>
       </c>
       <c r="D61" t="n">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="E61" t="n">
-        <v>252</v>
+        <v>432</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>PRG043</t>
+          <t>PRG007</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2829164.05</v>
+        <v>2554513.06</v>
       </c>
       <c r="H61" t="n">
-        <v>72.2</v>
+        <v>71.44</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>53.05%</t>
+          <t>97.3%</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="K61" t="n">
-        <v>4300.54</v>
+        <v>4110.26</v>
       </c>
       <c r="L61" t="n">
-        <v>8106.18</v>
+        <v>4224.44</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45657</v>
+        <v>45565</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Grant Funding</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1082288.65</v>
+        <v>2271640.88</v>
       </c>
       <c r="D62" t="n">
-        <v>468</v>
+        <v>884</v>
       </c>
       <c r="E62" t="n">
-        <v>359</v>
+        <v>458</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>PRG069</t>
+          <t>PRG062</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1232024.74</v>
+        <v>2914040.04</v>
       </c>
       <c r="H62" t="n">
-        <v>87.84999999999999</v>
+        <v>77.95999999999999</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>76.71%</t>
+          <t>51.81%</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K62" t="n">
-        <v>2312.58</v>
+        <v>2569.73</v>
       </c>
       <c r="L62" t="n">
-        <v>3014.73</v>
+        <v>4959.91</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45838</v>
+        <v>45473</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -3495,42 +3499,42 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>975275.45</v>
+        <v>4409521.58</v>
       </c>
       <c r="D63" t="n">
-        <v>409</v>
+        <v>663</v>
       </c>
       <c r="E63" t="n">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>PRG095</t>
+          <t>PRG052</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1325627.27</v>
+        <v>5798565.45</v>
       </c>
       <c r="H63" t="n">
-        <v>73.56999999999999</v>
+        <v>76.05</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>87.29%</t>
+          <t>61.24%</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
       <c r="K63" t="n">
-        <v>2384.54</v>
+        <v>6650.86</v>
       </c>
       <c r="L63" t="n">
-        <v>2731.86</v>
+        <v>10860.89</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -3540,42 +3544,42 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Program Fees</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2711406.58</v>
+        <v>3973182.24</v>
       </c>
       <c r="D64" t="n">
-        <v>898</v>
+        <v>726</v>
       </c>
       <c r="E64" t="n">
-        <v>604</v>
+        <v>690</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>PRG040</t>
+          <t>PRG041</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3632635.07</v>
+        <v>4694467.61</v>
       </c>
       <c r="H64" t="n">
-        <v>74.64</v>
+        <v>84.64</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>67.26%</t>
+          <t>95.04%</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="K64" t="n">
-        <v>3019.38</v>
+        <v>5472.7</v>
       </c>
       <c r="L64" t="n">
-        <v>4489.08</v>
+        <v>5758.24</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -3585,7 +3589,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45107</v>
+        <v>45382</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -3593,38 +3597,38 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>653405.84</v>
+        <v>1295887.15</v>
       </c>
       <c r="D65" t="n">
-        <v>910</v>
+        <v>928</v>
       </c>
       <c r="E65" t="n">
-        <v>561</v>
+        <v>491</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>PRG005</t>
+          <t>PRG038</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>910702.12</v>
+        <v>1673783.36</v>
       </c>
       <c r="H65" t="n">
-        <v>71.75</v>
+        <v>77.42</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>61.65%</t>
+          <t>52.91%</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="K65" t="n">
-        <v>718.03</v>
+        <v>1396.43</v>
       </c>
       <c r="L65" t="n">
-        <v>1164.72</v>
+        <v>2639.28</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -3634,242 +3638,242 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45473</v>
+        <v>45199</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Investment Returns</t>
+          <t>Maintenance</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1422340.1</v>
+        <v>2098327.89</v>
       </c>
       <c r="D66" t="n">
-        <v>651</v>
+        <v>52</v>
       </c>
       <c r="E66" t="n">
-        <v>629</v>
+        <v>43</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>PRG049</t>
+          <t>PRG017</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1633397.38</v>
+        <v>2930492.52</v>
       </c>
       <c r="H66" t="n">
-        <v>-87.08</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>96.62%</t>
+          <t>82.69%</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="K66" t="n">
-        <v>2184.85</v>
+        <v>40352.46</v>
       </c>
       <c r="L66" t="n">
-        <v>2261.27</v>
+        <v>48798.32</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45838</v>
+        <v>45291</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Interest Income</t>
+          <t>Program Fees</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>293241.5</v>
+        <v>4546145.68</v>
       </c>
       <c r="D67" t="n">
-        <v>464</v>
+        <v>166</v>
       </c>
       <c r="E67" t="n">
-        <v>311</v>
+        <v>148</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>PRG092</t>
+          <t>PRG030</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>353483.97</v>
+        <v>5324586.86</v>
       </c>
       <c r="H67" t="n">
-        <v>165.92</v>
+        <v>85.38</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>67.03%</t>
+          <t>89.16%</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="K67" t="n">
-        <v>631.99</v>
+        <v>27386.42</v>
       </c>
       <c r="L67" t="n">
-        <v>942.9</v>
+        <v>30717.2</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45747</v>
+        <v>45565</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Reimbursement</t>
+          <t>Program Fees</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1570623.53</v>
+        <v>5894651.29</v>
       </c>
       <c r="D68" t="n">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="E68" t="n">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>PRG086</t>
+          <t>PRG063</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1732684.4</v>
+        <v>8265625.93</v>
       </c>
       <c r="H68" t="n">
-        <v>90.65000000000001</v>
+        <v>71.31999999999999</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>73.79%</t>
+          <t>71.36%</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="K68" t="n">
-        <v>1896.89</v>
+        <v>7093.44</v>
       </c>
       <c r="L68" t="n">
-        <v>2570.58</v>
+        <v>9940.389999999999</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45291</v>
+        <v>45565</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Investment Returns</t>
+          <t>Software Subscription</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>715773.66</v>
+        <v>1473190.68</v>
       </c>
       <c r="D69" t="n">
-        <v>380</v>
+        <v>63</v>
       </c>
       <c r="E69" t="n">
-        <v>356</v>
+        <v>50</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>PRG027</t>
+          <t>PRG065</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>797531.58</v>
+        <v>1757203.8</v>
       </c>
       <c r="H69" t="n">
-        <v>89.75</v>
+        <v>83.84</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>93.68%</t>
+          <t>79.37%</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K69" t="n">
-        <v>1883.61</v>
+        <v>23383.98</v>
       </c>
       <c r="L69" t="n">
-        <v>2010.6</v>
+        <v>29463.81</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45657</v>
+        <v>45565</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Interest Income</t>
+          <t>Reimbursement</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>941433.7</v>
+        <v>715281.05</v>
       </c>
       <c r="D70" t="n">
-        <v>158</v>
+        <v>466</v>
       </c>
       <c r="E70" t="n">
-        <v>85</v>
+        <v>396</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>PRG070</t>
+          <t>PRG064</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1405411.89</v>
+        <v>823440.64</v>
       </c>
       <c r="H70" t="n">
-        <v>66.98999999999999</v>
+        <v>86.86</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>53.8%</t>
+          <t>84.98%</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="K70" t="n">
-        <v>5958.44</v>
+        <v>1534.94</v>
       </c>
       <c r="L70" t="n">
-        <v>11075.69</v>
+        <v>1806.27</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -3883,42 +3887,42 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Travel Expenses</t>
+          <t>Reimbursement</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2644221.07</v>
+        <v>1472275.49</v>
       </c>
       <c r="D71" t="n">
-        <v>275</v>
+        <v>828</v>
       </c>
       <c r="E71" t="n">
-        <v>220</v>
+        <v>611</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>PRG088</t>
+          <t>PRG086</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3010050.04</v>
+        <v>2038858.84</v>
       </c>
       <c r="H71" t="n">
-        <v>87.84999999999999</v>
+        <v>72.20999999999999</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>73.79%</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="K71" t="n">
-        <v>9615.35</v>
+        <v>1778.11</v>
       </c>
       <c r="L71" t="n">
-        <v>12019.19</v>
+        <v>2409.62</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -3928,56 +3932,56 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45838</v>
+        <v>45199</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Event Sponsorship</t>
+          <t>Investment Returns</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>277661.98</v>
+        <v>556272.14</v>
       </c>
       <c r="D72" t="n">
-        <v>631</v>
+        <v>957</v>
       </c>
       <c r="E72" t="n">
-        <v>512</v>
+        <v>917</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>PRG090</t>
+          <t>PRG016</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>413555.41</v>
+        <v>770885.59</v>
       </c>
       <c r="H72" t="n">
-        <v>67.14</v>
+        <v>72.16</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>81.14%</t>
+          <t>95.82%</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K72" t="n">
-        <v>440.03</v>
+        <v>581.27</v>
       </c>
       <c r="L72" t="n">
-        <v>542.3099999999999</v>
+        <v>606.62</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45473</v>
+        <v>45747</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -3985,136 +3989,136 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1298050.21</v>
+        <v>1394570.14</v>
       </c>
       <c r="D73" t="n">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="E73" t="n">
-        <v>623</v>
+        <v>397</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>PRG051</t>
+          <t>PRG084</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1929473.02</v>
+        <v>1535114.58</v>
       </c>
       <c r="H73" t="n">
-        <v>67.27</v>
+        <v>90.84</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>85.58%</t>
+          <t>53.65%</t>
         </is>
       </c>
       <c r="J73" t="n">
         <v>4.6</v>
       </c>
       <c r="K73" t="n">
-        <v>1783.04</v>
+        <v>1884.55</v>
       </c>
       <c r="L73" t="n">
-        <v>2083.55</v>
+        <v>3512.77</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45747</v>
+        <v>45107</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Software Subscription</t>
+          <t>Program Fees</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1471399.83</v>
+        <v>4032683.86</v>
       </c>
       <c r="D74" t="n">
-        <v>282</v>
+        <v>524</v>
       </c>
       <c r="E74" t="n">
-        <v>154</v>
+        <v>359</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>PRG087</t>
+          <t>PRG008</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2037646.2</v>
+        <v>5302019.73</v>
       </c>
       <c r="H74" t="n">
-        <v>72.20999999999999</v>
+        <v>76.06</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>54.61%</t>
+          <t>68.51%</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="K74" t="n">
-        <v>5217.73</v>
+        <v>7695.96</v>
       </c>
       <c r="L74" t="n">
-        <v>9554.540000000001</v>
+        <v>11233.1</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45199</v>
+        <v>45747</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Event Sponsorship</t>
+          <t>Maintenance</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1852151.11</v>
+        <v>1870021.26</v>
       </c>
       <c r="D75" t="n">
-        <v>957</v>
+        <v>139</v>
       </c>
       <c r="E75" t="n">
-        <v>922</v>
+        <v>81</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>PRG013</t>
+          <t>PRG083</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2151898.18</v>
+        <v>2738240.2</v>
       </c>
       <c r="H75" t="n">
-        <v>86.06999999999999</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>96.34%</t>
+          <t>58.27%</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="K75" t="n">
-        <v>1935.37</v>
+        <v>13453.39</v>
       </c>
       <c r="L75" t="n">
-        <v>2008.84</v>
+        <v>23086.68</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -4124,7 +4128,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45382</v>
+        <v>45747</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -4132,38 +4136,38 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>623917.28</v>
+        <v>557217.1699999999</v>
       </c>
       <c r="D76" t="n">
-        <v>914</v>
+        <v>285</v>
       </c>
       <c r="E76" t="n">
-        <v>664</v>
+        <v>237</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>PRG036</t>
+          <t>PRG080</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>807503.21</v>
+        <v>793298.2</v>
       </c>
       <c r="H76" t="n">
-        <v>77.26000000000001</v>
+        <v>70.23999999999999</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>72.65%</t>
+          <t>83.16%</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="K76" t="n">
-        <v>682.62</v>
+        <v>1955.15</v>
       </c>
       <c r="L76" t="n">
-        <v>939.63</v>
+        <v>2351.13</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -4173,46 +4177,46 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45565</v>
+        <v>45657</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Grant Funding</t>
+          <t>Travel Expenses</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>971374.2</v>
+        <v>2976351.69</v>
       </c>
       <c r="D77" t="n">
-        <v>587</v>
+        <v>704</v>
       </c>
       <c r="E77" t="n">
-        <v>501</v>
+        <v>368</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>PRG058</t>
+          <t>PRG077</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1172606.52</v>
+        <v>4396786.22</v>
       </c>
       <c r="H77" t="n">
-        <v>82.84</v>
+        <v>67.69</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>85.35%</t>
+          <t>52.27%</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="K77" t="n">
-        <v>1654.81</v>
+        <v>4227.77</v>
       </c>
       <c r="L77" t="n">
-        <v>1938.87</v>
+        <v>8087.91</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -4222,46 +4226,46 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45565</v>
+        <v>45473</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Maintenance</t>
+          <t>Event Sponsorship</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2245071.23</v>
+        <v>3041459.76</v>
       </c>
       <c r="D78" t="n">
-        <v>577</v>
+        <v>51</v>
       </c>
       <c r="E78" t="n">
-        <v>580</v>
+        <v>39</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>PRG061</t>
+          <t>PRG046</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2521305.57</v>
+        <v>4456521.93</v>
       </c>
       <c r="H78" t="n">
-        <v>89.04000000000001</v>
+        <v>-68.25</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>95.49%</t>
+          <t>76.47%</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="K78" t="n">
-        <v>3890.94</v>
+        <v>59636.47</v>
       </c>
       <c r="L78" t="n">
-        <v>4074.54</v>
+        <v>77986.14999999999</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -4275,42 +4279,42 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Software Subscription</t>
+          <t>Travel Expenses</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1782644.82</v>
+        <v>1980259.32</v>
       </c>
       <c r="D79" t="n">
-        <v>266</v>
+        <v>783</v>
       </c>
       <c r="E79" t="n">
-        <v>238</v>
+        <v>436</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>PRG021</t>
+          <t>PRG022</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2296861.66</v>
+        <v>2774170.12</v>
       </c>
       <c r="H79" t="n">
-        <v>77.61</v>
+        <v>71.38</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>89.47%</t>
+          <t>55.68%</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="K79" t="n">
-        <v>6701.67</v>
+        <v>2529.07</v>
       </c>
       <c r="L79" t="n">
-        <v>7490.1</v>
+        <v>4541.88</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
@@ -4320,46 +4324,46 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45107</v>
+        <v>45565</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Reimbursement</t>
+          <t>Maintenance</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1048933.45</v>
+        <v>1825298.51</v>
       </c>
       <c r="D80" t="n">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="E80" t="n">
-        <v>310</v>
+        <v>551</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>PRG009</t>
+          <t>PRG061</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1379097.9</v>
+        <v>2691334.49</v>
       </c>
       <c r="H80" t="n">
-        <v>76.06</v>
+        <v>67.81999999999999</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>52.19%</t>
+          <t>95.49%</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="K80" t="n">
-        <v>1765.88</v>
+        <v>3163.43</v>
       </c>
       <c r="L80" t="n">
-        <v>3383.66</v>
+        <v>3312.7</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
@@ -4373,91 +4377,89 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Program Fees</t>
+          <t>Travel Expenses</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4997522.88</v>
+        <v>2365096.29</v>
       </c>
       <c r="D81" t="n">
-        <v>726</v>
+        <v>155</v>
       </c>
       <c r="E81" t="n">
-        <v>690</v>
+        <v>125</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>PRG041</t>
+          <t>PRG044</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5662949.73</v>
+        <v>3353527.87</v>
       </c>
       <c r="H81" t="n">
-        <v>88.25</v>
+        <v>70.53</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>95.04%</t>
+          <t>80.65%</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="K81" t="n">
-        <v>6883.64</v>
+        <v>15258.69</v>
       </c>
       <c r="L81" t="n">
-        <v>7242.79</v>
+        <v>18920.77</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45382</v>
+        <v>45199</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Reimbursement</t>
+          <t>Software Subscription</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1098440.68</v>
-      </c>
-      <c r="D82" t="n">
-        <v>233</v>
-      </c>
+        <v>1447327.3</v>
+      </c>
+      <c r="D82" t="inlineStr"/>
       <c r="E82" t="n">
-        <v>182</v>
+        <v>238</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>PRG042</t>
+          <t>PRG021</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1297849.91</v>
+        <v>1903217.22</v>
       </c>
       <c r="H82" t="n">
-        <v>84.64</v>
+        <v>76.05</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>78.11%</t>
+          <t>89.47%</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="K82" t="n">
-        <v>4714.34</v>
+        <v>5441.08</v>
       </c>
       <c r="L82" t="n">
-        <v>6035.39</v>
+        <v>6081.21</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
@@ -4467,95 +4469,91 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45291</v>
+        <v>45657</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Reimbursement</t>
+          <t>Grant Funding</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1269966.11</v>
-      </c>
-      <c r="D83" t="n">
-        <v>476</v>
-      </c>
+        <v>1288613.36</v>
+      </c>
+      <c r="D83" t="inlineStr"/>
       <c r="E83" t="n">
-        <v>416</v>
+        <v>359</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>PRG031</t>
-        </is>
-      </c>
-      <c r="G83" t="n">
-        <v>1487423.71</v>
-      </c>
+          <t>PRG069</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
-        <v>85.38</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>87.39%</t>
+          <t>76.71%</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="K83" t="n">
-        <v>2668</v>
+        <v>2753.45</v>
       </c>
       <c r="L83" t="n">
-        <v>3052.8</v>
+        <v>3589.45</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45565</v>
+        <v>45107</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Reimbursement</t>
+          <t>Software Subscription</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1121802.63</v>
+        <v>1320149.61</v>
       </c>
       <c r="D84" t="n">
-        <v>466</v>
+        <v>349</v>
       </c>
       <c r="E84" t="n">
-        <v>396</v>
+        <v>252</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>PRG064</t>
+          <t>PRG010</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1573019.41</v>
+        <v>1753091.65</v>
       </c>
       <c r="H84" t="n">
-        <v>71.31999999999999</v>
+        <v>75.3</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>84.98%</t>
+          <t>72.21%</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="K84" t="n">
-        <v>2407.3</v>
+        <v>3782.66</v>
       </c>
       <c r="L84" t="n">
-        <v>2832.83</v>
+        <v>5238.69</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -4565,46 +4563,46 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45291</v>
+        <v>45657</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Travel Expenses</t>
+          <t>Reimbursement</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1831915.44</v>
+        <v>1367208.02</v>
       </c>
       <c r="D85" t="n">
-        <v>170</v>
+        <v>545</v>
       </c>
       <c r="E85" t="n">
-        <v>109</v>
+        <v>329</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>PRG033</t>
+          <t>PRG075</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2609916.77</v>
+        <v>1984146.36</v>
       </c>
       <c r="H85" t="n">
-        <v>70.19</v>
+        <v>68.91</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>64.12%</t>
+          <t>60.37%</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="K85" t="n">
-        <v>10775.97</v>
+        <v>2508.64</v>
       </c>
       <c r="L85" t="n">
-        <v>16806.56</v>
+        <v>4155.65</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
@@ -4614,46 +4612,46 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45657</v>
+        <v>45838</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Travel Expenses</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2423091.86</v>
+        <v>113247.87</v>
       </c>
       <c r="D86" t="n">
-        <v>407</v>
+        <v>977</v>
       </c>
       <c r="E86" t="n">
-        <v>235</v>
+        <v>727</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>PRG073</t>
+          <t>PRG099</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3309939.16</v>
+        <v>124669.28</v>
       </c>
       <c r="H86" t="n">
-        <v>73.20999999999999</v>
+        <v>90.84</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>57.74%</t>
+          <t>74.41%</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="K86" t="n">
-        <v>5953.54</v>
+        <v>115.91</v>
       </c>
       <c r="L86" t="n">
-        <v>10311.03</v>
+        <v>155.77</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -4663,95 +4661,93 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45107</v>
+        <v>45838</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Maintenance</t>
+          <t>Event Sponsorship</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>22714482.1</v>
+        <v>454654.85</v>
       </c>
       <c r="D87" t="n">
-        <v>811</v>
+        <v>631</v>
       </c>
       <c r="E87" t="n">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>PRG006</t>
-        </is>
-      </c>
-      <c r="G87" t="n">
-        <v>2986573.85</v>
-      </c>
+          <t>PRG090</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="n">
-        <v>76.06</v>
+        <v>76.12</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>61.04%</t>
+          <t>81.14%</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="K87" t="n">
-        <v>2800.8</v>
+        <v>720.53</v>
       </c>
       <c r="L87" t="n">
-        <v>4588.78</v>
+        <v>888</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45473</v>
+        <v>45565</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Consulting Fees</t>
+          <t>Event Sponsorship</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1859882.83</v>
+        <v>1967044.3</v>
       </c>
       <c r="D88" t="n">
-        <v>596</v>
+        <v>168</v>
       </c>
       <c r="E88" t="n">
-        <v>488</v>
+        <v>97</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>PRG045</t>
+          <t>PRG057</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2637173.35</v>
+        <v>2374542.13</v>
       </c>
       <c r="H88" t="n">
-        <v>70.53</v>
+        <v>82.84</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>81.88%</t>
+          <t>57.74%</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="K88" t="n">
-        <v>3120.61</v>
+        <v>11708.6</v>
       </c>
       <c r="L88" t="n">
-        <v>3811.24</v>
+        <v>20278.81</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
@@ -4761,46 +4757,46 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45747</v>
+        <v>45838</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>1252925.62</t>
-        </is>
+          <t>Software Subscription</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>544424.34</v>
       </c>
       <c r="D89" t="n">
-        <v>740</v>
+        <v>864</v>
       </c>
       <c r="E89" t="n">
-        <v>397</v>
+        <v>903</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>PRG084</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr"/>
+          <t>PRG098</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>751877.45</v>
+      </c>
       <c r="H89" t="n">
-        <v>68.29000000000001</v>
+        <v>72.41</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>53.65%</t>
+          <t>82.06%</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="K89" t="n">
-        <v>1693.14</v>
+        <v>630.12</v>
       </c>
       <c r="L89" t="n">
-        <v>3155.98</v>
+        <v>767.88</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
@@ -4810,252 +4806,252 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45199</v>
+        <v>45107</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Grant Funding</t>
+          <t>Investment Returns</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>754856.28</v>
+        <v>1628995.07</v>
       </c>
       <c r="D90" t="n">
-        <v>808</v>
+        <v>910</v>
       </c>
       <c r="E90" t="n">
-        <v>674</v>
+        <v>561</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>PRG014</t>
+          <t>PRG005</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>871591.95</v>
+        <v>2141855.6</v>
       </c>
       <c r="H90" t="n">
-        <v>86.61</v>
+        <v>76.06</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>83.42%</t>
+          <t>61.65%</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="K90" t="n">
-        <v>934.23</v>
+        <v>1790.1</v>
       </c>
       <c r="L90" t="n">
-        <v>1119.96</v>
+        <v>2903.73</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45657</v>
+        <v>45473</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Event Sponsorship</t>
+          <t>investment returns</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2032979.61</v>
+        <v>469771.55</v>
       </c>
       <c r="D91" t="n">
-        <v>897</v>
+        <v>651</v>
       </c>
       <c r="E91" t="n">
-        <v>517</v>
+        <v>629</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>PRG068</t>
+          <t>PRG049</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2793708.93</v>
+        <v>619753.0600000001</v>
       </c>
       <c r="H91" t="n">
-        <v>72.77</v>
+        <v>75.8</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>57.64%</t>
+          <t>96.62%</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="K91" t="n">
-        <v>2266.42</v>
+        <v>721.62</v>
       </c>
       <c r="L91" t="n">
-        <v>3932.26</v>
+        <v>746.85</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45565</v>
+        <v>45838</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Consulting Fees</t>
+          <t>Event Sponsorship</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2233750.59</v>
+        <v>454654.85</v>
       </c>
       <c r="D92" t="n">
-        <v>823</v>
+        <v>631</v>
       </c>
       <c r="E92" t="n">
-        <v>756</v>
+        <v>512</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>PRG056</t>
+          <t>PRG090</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3072310.83</v>
+        <v>597279</v>
       </c>
       <c r="H92" t="n">
-        <v>72.70999999999999</v>
+        <v>76.12</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>91.86%</t>
+          <t>81.14%</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="K92" t="n">
-        <v>2714.16</v>
+        <v>720.53</v>
       </c>
       <c r="L92" t="n">
-        <v>2954.7</v>
+        <v>888</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45747</v>
+        <v>45107</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Program Fees</t>
+          <t>Maintenance</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4292345.47</v>
+        <v>16531630.6</v>
       </c>
       <c r="D93" t="n">
-        <v>693</v>
+        <v>811</v>
       </c>
       <c r="E93" t="n">
-        <v>388</v>
+        <v>495</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>PRG085</t>
+          <t>PRG006</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4724926.99</v>
+        <v>2298122.55</v>
       </c>
       <c r="H93" t="n">
-        <v>90.84</v>
+        <v>71.94</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>55.99%</t>
+          <t>61.04%</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="K93" t="n">
-        <v>6193.86</v>
+        <v>2038.43</v>
       </c>
       <c r="L93" t="n">
-        <v>11062.75</v>
+        <v>3339.72</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45291</v>
+        <v>45657</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Maintenance</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1723841.85</v>
+        <v>2578386.88</v>
       </c>
       <c r="D94" t="n">
-        <v>567</v>
+        <v>112</v>
       </c>
       <c r="E94" t="n">
-        <v>412</v>
+        <v>71</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>PRG029</t>
+          <t>PRG072</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2288822.01</v>
+        <v>3522071.88</v>
       </c>
       <c r="H94" t="n">
-        <v>75.31999999999999</v>
+        <v>73.20999999999999</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>72.66%</t>
+          <t>63.39%</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="K94" t="n">
-        <v>3040.29</v>
+        <v>23021.31</v>
       </c>
       <c r="L94" t="n">
-        <v>4184.08</v>
+        <v>36315.31</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45747</v>
+        <v>45657</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -5063,38 +5059,38 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>853062.9299999999</v>
+        <v>655825.42</v>
       </c>
       <c r="D95" t="n">
-        <v>505</v>
+        <v>783</v>
       </c>
       <c r="E95" t="n">
-        <v>505</v>
+        <v>762</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>PRG082</t>
+          <t>PRG071</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1270039.26</v>
+        <v>967578.59</v>
       </c>
       <c r="H95" t="n">
-        <v>67.17</v>
+        <v>67.78</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>97.32%</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="K95" t="n">
-        <v>1689.23</v>
+        <v>837.58</v>
       </c>
       <c r="L95" t="n">
-        <v>1689.23</v>
+        <v>860.66</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
@@ -5104,50 +5100,50 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45747</v>
+        <v>45291</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Consulting Fees</t>
+          <t>Investment Returns</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2229244.89</v>
+        <v>514570.19</v>
       </c>
       <c r="D96" t="n">
-        <v>273</v>
+        <v>380</v>
       </c>
       <c r="E96" t="n">
-        <v>218</v>
+        <v>356</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>PRG078</t>
+          <t>PRG027</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3293130.06</v>
+        <v>712039.62</v>
       </c>
       <c r="H96" t="n">
-        <v>67.69</v>
+        <v>72.27</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>79.85%</t>
+          <t>93.68%</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="K96" t="n">
-        <v>8165.73</v>
+        <v>1354.13</v>
       </c>
       <c r="L96" t="n">
-        <v>10225.89</v>
+        <v>1445.42</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -5157,42 +5153,42 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Grant Funding</t>
+          <t>Reimbursement</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>187708.63</v>
+        <v>403030.01</v>
       </c>
       <c r="D97" t="n">
-        <v>332</v>
+        <v>591</v>
       </c>
       <c r="E97" t="n">
-        <v>181</v>
+        <v>460</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>PRG091</t>
+          <t>PRG097</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>246592.38</v>
+        <v>480688.38</v>
       </c>
       <c r="H97" t="n">
-        <v>76.12</v>
+        <v>83.84</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>54.52%</t>
+          <t>77.83%</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="K97" t="n">
-        <v>565.39</v>
+        <v>681.95</v>
       </c>
       <c r="L97" t="n">
-        <v>1037.06</v>
+        <v>876.15</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
@@ -5202,46 +5198,46 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45657</v>
+        <v>45291</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Program Fees</t>
+          <t>Travel Expenses</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5588991.05</v>
+        <v>2449814.15</v>
       </c>
       <c r="D98" t="n">
-        <v>276</v>
+        <v>170</v>
       </c>
       <c r="E98" t="n">
-        <v>214</v>
+        <v>109</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>PRG074</t>
+          <t>PRG033</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>7157695.13</v>
+        <v>3004866.03</v>
       </c>
       <c r="H98" t="n">
-        <v>78.08</v>
+        <v>81.53</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>77.54%</t>
+          <t>64.12%</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="K98" t="n">
-        <v>20249.97</v>
+        <v>14410.67</v>
       </c>
       <c r="L98" t="n">
-        <v>26116.78</v>
+        <v>22475.36</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
@@ -5255,46 +5251,144 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Reimbursement</t>
+          <t>Event Sponsorship</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1075681.36</v>
+        <v>1740400.31</v>
       </c>
       <c r="D99" t="n">
-        <v>545</v>
+        <v>897</v>
       </c>
       <c r="E99" t="n">
-        <v>329</v>
+        <v>517</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>PRG075</t>
+          <t>PRG068</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1500493.41</v>
+        <v>1981187.03</v>
       </c>
       <c r="H99" t="n">
-        <v>71.69</v>
+        <v>87.84999999999999</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>60.37%</t>
+          <t>57.64%</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="K99" t="n">
-        <v>1973.73</v>
+        <v>1940.25</v>
       </c>
       <c r="L99" t="n">
-        <v>3269.55</v>
+        <v>3366.34</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45473</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Office Supplies</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>2052057.01</v>
+      </c>
+      <c r="D100" t="n">
+        <v>728</v>
+      </c>
+      <c r="E100" t="n">
+        <v>623</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>PRG051</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>3008851.96</v>
+      </c>
+      <c r="H100" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>85.58%</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>5</v>
+      </c>
+      <c r="K100" t="n">
+        <v>2818.76</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3293.83</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45473</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Consulting Fees</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>2343284.68</v>
+      </c>
+      <c r="D101" t="n">
+        <v>596</v>
+      </c>
+      <c r="E101" t="n">
+        <v>488</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>PRG045</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>3369031.04</v>
+      </c>
+      <c r="H101" t="n">
+        <v>69.55</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>81.88%</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K101" t="n">
+        <v>3931.69</v>
+      </c>
+      <c r="L101" t="n">
+        <v>4801.81</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
